--- a/DataSheet/DemoAutomation.xlsx
+++ b/DataSheet/DemoAutomation.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
   <si>
     <t xml:space="preserve">NO</t>
   </si>
@@ -143,7 +143,16 @@
     <t xml:space="preserve">TC_02_01</t>
   </si>
   <si>
-    <t xml:space="preserve">user should wait</t>
+    <t xml:space="preserve">user should visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xpath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//label[text()='Full Name ']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkVisibility</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -180,9 +189,6 @@
   </si>
   <si>
     <t xml:space="preserve">index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpath</t>
   </si>
   <si>
     <t xml:space="preserve">//input[@type="text"]</t>
@@ -413,13 +419,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.23"/>
@@ -766,19 +772,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>39</v>
@@ -786,19 +792,19 @@
       <c r="L9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>46</v>
+      <c r="M9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>15</v>
@@ -807,20 +813,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="0"/>
+        <v>46</v>
+      </c>
       <c r="J10" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>39</v>
@@ -829,18 +834,18 @@
         <v>21</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
@@ -849,13 +854,20 @@
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="0"/>
       <c r="J11" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>39</v>
@@ -864,18 +876,18 @@
         <v>21</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
@@ -884,19 +896,13 @@
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>39</v>
@@ -905,18 +911,18 @@
         <v>21</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>15</v>
@@ -925,16 +931,19 @@
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>39</v>
@@ -943,18 +952,18 @@
         <v>21</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
@@ -963,19 +972,16 @@
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>39</v>
@@ -984,18 +990,18 @@
         <v>21</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
@@ -1004,22 +1010,19 @@
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>39</v>
@@ -1028,13 +1031,57 @@
         <v>21</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1056,32 +1103,32 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>36</v>
@@ -1092,25 +1139,25 @@
         <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/DemoAutomation.xlsx
+++ b/DataSheet/DemoAutomation.xlsx
@@ -149,7 +149,7 @@
     <t xml:space="preserve">xpath</t>
   </si>
   <si>
-    <t xml:space="preserve">//label[text()='Full Name ']</t>
+    <t xml:space="preserve">//label[text()='Full Name* ']</t>
   </si>
   <si>
     <t xml:space="preserve">checkVisibility</t>
@@ -425,7 +425,7 @@
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.23"/>
@@ -1106,7 +1106,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">

--- a/DataSheet/DemoAutomation.xlsx
+++ b/DataSheet/DemoAutomation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -421,11 +421,11 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.23"/>
@@ -1100,13 +1100,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1159,6 +1159,10 @@
       <c r="H2" s="10" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
